--- a/app/vendors/PHPExcel/Tests/02types.xlsx
+++ b/app/vendors/PHPExcel/Tests/02types.xlsx
@@ -24,18 +24,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <sz val="11"/>
       <u val="none"/>
       <color rgb="FF000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <sz val="10"/>
       <u val="none"/>
       <color rgb="FF000000"/>
@@ -58,14 +56,11 @@
   <borders count="1">
     <border outline="true"/>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="1" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+  <cellXfs count="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -373,7 +368,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.10" customWidth="true"/>
+    <col min="1" max="1" width="9.1" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -399,7 +394,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" fitToHeight="0" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
